--- a/startup_az_linkwise.xlsx
+++ b/startup_az_linkwise.xlsx
@@ -496,32 +496,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Certification</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Programs</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LookingForTeam</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Investments</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Certification</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Programs</t>
         </is>
       </c>
     </row>
@@ -568,14 +568,10 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>Maliyyə və e-ticarət</t>
@@ -588,29 +584,21 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -656,14 +644,10 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -676,29 +660,21 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -744,14 +720,10 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>İdman</t>
@@ -764,29 +736,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -835,11 +799,7 @@
           <t>info@fogito.com</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -852,29 +812,21 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -933,36 +885,24 @@
           <t>Nəqliyyat</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>50 min AZN -ə</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1021,41 +961,33 @@
           <t>Dizayner</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>11-50</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
           <t>NEXT STEP  İnnovasiya Mərkəzi</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1100,7 +1032,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>info@startup.az</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1120,32 +1052,32 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
         </is>
       </c>
     </row>
@@ -1192,14 +1124,10 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>Ev və yaşayış</t>
@@ -1212,29 +1140,21 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1300,32 +1220,32 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>2 nəfər</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Proqramçı (həmtəsisçi)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
         </is>
       </c>
     </row>
@@ -1392,29 +1312,21 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1480,29 +1392,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1568,29 +1472,21 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1631,7 +1527,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1656,29 +1552,21 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1744,29 +1632,21 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1825,36 +1705,24 @@
           <t>Marketinq</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2028,29 +1896,21 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>50 min AZN -ə</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2116,29 +1976,21 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2225,36 +2077,24 @@
           <t>Maliyyə və e-ticarət</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2320,29 +2160,21 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2383,7 +2215,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2408,29 +2240,21 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2471,19 +2295,15 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>Həyat tərzi</t>
@@ -2496,29 +2316,21 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2584,29 +2396,21 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2672,29 +2476,21 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2735,19 +2531,15 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -2760,29 +2552,21 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2823,19 +2607,15 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -2848,29 +2628,21 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2936,29 +2708,21 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2999,19 +2763,15 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>İdman</t>
@@ -3024,29 +2784,21 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -3087,7 +2839,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3095,11 +2847,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>Web backend development</t>
@@ -3112,29 +2860,21 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -3175,19 +2915,15 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -3200,29 +2936,21 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -3271,11 +2999,7 @@
           <t>info@glame.app</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>Dəb və gözəllik</t>
@@ -3288,29 +3012,21 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -3356,14 +3072,10 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -3376,29 +3088,21 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -3439,19 +3143,15 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>Təhsil</t>
@@ -3464,29 +3164,21 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -3552,29 +3244,21 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -3640,29 +3324,21 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3728,29 +3404,21 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -3816,29 +3484,21 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -3904,29 +3564,21 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -3967,7 +3619,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3992,29 +3644,21 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -4055,7 +3699,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4080,29 +3724,21 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -4168,29 +3804,21 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -4256,29 +3884,21 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -4324,14 +3944,10 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -4344,29 +3960,21 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -4412,14 +4020,10 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>Ev və yaşayış</t>
@@ -4432,29 +4036,21 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -4500,14 +4096,10 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -4520,29 +4112,21 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -4591,11 +4175,7 @@
           <t>info@kodlasan.az</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>Təhsil</t>
@@ -4608,29 +4188,21 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -4696,29 +4268,21 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -4767,11 +4331,7 @@
           <t>support@cibpay.az</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>Maliyyə və e-ticarət</t>
@@ -4784,29 +4344,21 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -4852,14 +4404,10 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -4872,29 +4420,21 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -4940,14 +4480,10 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>Təhsil</t>
@@ -4960,29 +4496,21 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -5028,14 +4556,10 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>İstirahət və turizm</t>
@@ -5048,29 +4572,21 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -5116,14 +4632,10 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -5136,29 +4648,21 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -5224,29 +4728,21 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -5348,29 +4844,21 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -5416,14 +4904,10 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -5436,29 +4920,21 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -5504,14 +4980,10 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>Təhsil</t>
@@ -5524,29 +4996,21 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -5991,11 +5455,7 @@
           <t>-----</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -6008,29 +5468,21 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -6076,14 +5528,10 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -6096,29 +5544,21 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -6184,29 +5624,21 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
@@ -6272,29 +5704,21 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
@@ -6340,7 +5764,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>info@startup.az</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6360,29 +5784,21 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -6448,29 +5864,21 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -6536,29 +5944,21 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
@@ -6607,11 +6007,7 @@
           <t>info@eattable.com</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -6624,29 +6020,21 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -6695,11 +6083,7 @@
           <t>-----</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>İstirahət və turizm</t>
@@ -6712,29 +6096,21 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
@@ -6836,29 +6212,21 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -6904,14 +6272,10 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -6924,29 +6288,21 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
@@ -6995,11 +6351,7 @@
           <t>contact@ainuverse.com</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -7012,29 +6364,21 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
@@ -7100,29 +6444,21 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
@@ -7188,29 +6524,21 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
@@ -7276,29 +6604,21 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
@@ -7347,11 +6667,7 @@
           <t>info@email.com</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>İdman</t>
@@ -7364,29 +6680,21 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -7452,29 +6760,21 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -7520,7 +6820,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>info@startup.az</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7540,29 +6840,21 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Bağlanıb</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Bağlanıb</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -7628,29 +6920,21 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -7691,7 +6975,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7716,29 +7000,25 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
           <t>Self Tech MMC</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
@@ -7779,7 +7059,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7804,29 +7084,21 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -7892,29 +7164,21 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -7955,7 +7219,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7980,29 +7244,21 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -8068,29 +7324,21 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
@@ -8156,29 +7404,21 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
@@ -8244,29 +7484,21 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
@@ -8332,29 +7564,21 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
@@ -8816,29 +8040,21 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
       <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -9280,14 +8496,10 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>Kənd təsərrüfatı</t>
@@ -9300,29 +8512,21 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P124" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
@@ -9388,29 +8592,21 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q125" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
       <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
@@ -9476,29 +8672,21 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
       <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -9564,29 +8752,21 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
       <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -9632,14 +8812,10 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -9652,29 +8828,21 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
       <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
@@ -9720,14 +8888,10 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -9740,29 +8904,21 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
       <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -9828,29 +8984,21 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
       <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
@@ -9916,29 +9064,21 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
       <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -10020,14 +9160,10 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>Əyləncə</t>
@@ -10040,29 +9176,21 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
       <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -10108,14 +9236,10 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>Nəqliyyat</t>
@@ -10128,29 +9252,21 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
       <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -10199,11 +9315,7 @@
           <t>we@pacco.az</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -10216,29 +9328,21 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
       <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -10700,29 +9804,21 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
       <c r="R147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -10768,14 +9864,10 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -10788,29 +9880,21 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
       <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
@@ -10856,7 +9940,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>info@startup.az</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10876,29 +9960,21 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q149" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
       <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
@@ -10947,11 +10023,7 @@
           <t>info@e-mza.app</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -10964,29 +10036,21 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
       <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
@@ -11032,14 +10096,10 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>Qacetlər</t>
@@ -11052,29 +10112,21 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
       <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
@@ -11120,14 +10172,10 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>Tibb</t>
@@ -11140,29 +10188,21 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
       <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -11228,29 +10268,21 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
       <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -11316,29 +10348,21 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
       <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
@@ -11384,14 +10408,10 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>Marketinq</t>
@@ -11404,29 +10424,21 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q155" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
       <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
@@ -11508,7 +10520,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>info@startup.az</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -11528,29 +10540,21 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
       <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -11648,30 +10652,30 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
           <t>Sahil Qələndərov, Azər Məmmədli, Günay Məmmədova</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr">
         <is>
           <t>Marketinq, SMM mentorlar</t>
         </is>
       </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>MVP</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11736,30 +10740,30 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
           <t>Cavid Məmmədov, Sənan Quluzadə, Elgün Həsənli,Tural Müzəffərli,Orxan Quluzadə, Heydər Əliyev</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr">
         <is>
           <t>Hazırda tələb edilmir</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>MVP</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11824,30 +10828,30 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>1 milyon AZN +</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
           <t>....</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr">
         <is>
           <t>Komandaya üzv axtarılmır</t>
         </is>
       </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11912,29 +10916,25 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="inlineStr"/>
     </row>
     <row r="163">
@@ -12000,30 +11000,30 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr">
         <is>
           <t>-----</t>
         </is>
       </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -12088,29 +11088,25 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -12176,29 +11172,25 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -12264,29 +11256,25 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>50 min AZN -ə</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
           <t>1-10</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
@@ -12352,29 +11340,21 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -12433,36 +11413,24 @@
           <t>Maliyyə və e-ticarət</t>
         </is>
       </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>25 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>25 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q168" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
       <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -12521,36 +11489,24 @@
           <t>Maliyyə və e-ticarət</t>
         </is>
       </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q169" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
       <c r="R169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -12616,32 +11572,32 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
+          <t>MVP</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
           <t>Seymur Rəsulov, Enrike Nurməmmədov, Anar Aliyev, Əli Heydərli, Amil Əlizadə, Hikmət Səmədov, Heydər Muradov, Sərxan Rəhimli, Fərhad Əsgərov, Dilbər Hüseynzadə, Cəmil Ağasi, Ceyhun Burzuyev, Şahlar Dəmirli, Vasif Həmzətov, Asif Bəşirov, Aygül Osmanli</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>MVP</t>
-        </is>
-      </c>
-      <c r="P170" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-      <c r="R170" t="inlineStr">
-        <is>
-          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
         </is>
       </c>
     </row>
@@ -12701,36 +11657,24 @@
           <t>Tibb</t>
         </is>
       </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P171" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q171" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
       <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
@@ -12796,29 +11740,21 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P172" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q172" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
       <c r="R172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -12884,29 +11820,25 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
           <t>------</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>----</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q173" t="inlineStr"/>
       <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -12965,36 +11897,24 @@
           <t>Ailə və uşaqlar</t>
         </is>
       </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>1 milyon AZN +</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
       <c r="R174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -13053,36 +11973,24 @@
           <t>Həyat tərzi</t>
         </is>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>1 milyon AZN +</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P175" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
       <c r="R175" t="inlineStr"/>
     </row>
     <row r="176">
@@ -13141,36 +12049,24 @@
           <t>Marketinq</t>
         </is>
       </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>1 milyon AZN +</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P176" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
       <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
@@ -13229,36 +12125,24 @@
           <t>Maliyyə və e-ticarət</t>
         </is>
       </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>1 milyon AZN +</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P177" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
       <c r="R177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -13324,29 +12208,21 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>100 min AZN-ə qədər</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P178" t="inlineStr">
-        <is>
-          <t>100 min AZN-ə qədər</t>
-        </is>
-      </c>
-      <c r="Q178" t="inlineStr">
-        <is>
           <t>Yoxdur</t>
         </is>
       </c>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
       <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
@@ -13412,29 +12288,25 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>1 milyon AZN +</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
           <t>1-30</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P179" t="inlineStr">
-        <is>
-          <t>1 milyon AZN +</t>
-        </is>
-      </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
+      <c r="Q179" t="inlineStr"/>
       <c r="R179" t="inlineStr"/>
     </row>
     <row r="180">
@@ -13500,29 +12372,21 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Satış edir</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>50 min AZN -ə</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P180" t="inlineStr">
-        <is>
-          <t>50 min AZN -ə</t>
-        </is>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
       <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
@@ -13588,32 +12452,32 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
+          <t>Satış edir</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Var</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
           <t>12 nəfər</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
         <is>
           <t>xeyr</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>Satış edir</t>
-        </is>
-      </c>
-      <c r="P181" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
         </is>
       </c>
     </row>
@@ -13680,32 +12544,32 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
           <t>3 nəfər</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P182" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R182" t="inlineStr">
-        <is>
-          <t>“INNOLAND” İnkubasiya və Akselerasiya Mərkəzi</t>
         </is>
       </c>
     </row>
@@ -13772,32 +12636,32 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
           <t>1 developer, 1 marketing specialist, 1 product manager</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>ABB Tech Akademiyası</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
         <is>
           <t>Marketinq menecer</t>
-        </is>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P183" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q183" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R183" t="inlineStr">
-        <is>
-          <t>ABB Tech Akademiyası</t>
         </is>
       </c>
     </row>
@@ -13864,32 +12728,32 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
           <t>1 CEO, 1 CFO, 6 International representative (1 Director of Sports Affairs, 1 Football Expert), 1 UX/UI Designer, 1 Web Developer</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>ABB Tech Akademiyası</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
         <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R184" t="inlineStr">
-        <is>
-          <t>ABB Tech Akademiyası</t>
         </is>
       </c>
     </row>
@@ -13931,7 +12795,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13956,32 +12820,32 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
           <t>1 proqramçı, 1 marketinq menecer, 1 məhsul sahibi, 1 müştəri xidməti  mütəxəssisi</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>ABB Tech Akademiyası</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P185" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R185" t="inlineStr">
-        <is>
-          <t>ABB Tech Akademiyası</t>
         </is>
       </c>
     </row>
@@ -14048,32 +12912,32 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
           <t>1 developer, 1 UX/UI designer, 1 marketing manager, 1 product owner</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>ABB Tech Akademiyası</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P186" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R186" t="inlineStr">
-        <is>
-          <t>ABB Tech Akademiyası</t>
         </is>
       </c>
     </row>
@@ -14140,32 +13004,32 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
+          <t>İşləyir</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Axtarılmır</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>Yoxdur</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
           <t>1 Digital Marketing specialist, 1 Business development manager, 1 product manager</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>ABB Tech Akademiyası</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
         <is>
           <t>Xeyr</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P187" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>Yoxdur</t>
-        </is>
-      </c>
-      <c r="R187" t="inlineStr">
-        <is>
-          <t>ABB Tech Akademiyası</t>
         </is>
       </c>
     </row>
@@ -14207,19 +13071,15 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>http://old.startup.az</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>---</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+          <t>info@startup.az</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>Əyləncə</t>
@@ -14232,29 +13092,21 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P188" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q188" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
       <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -14320,29 +13172,21 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P189" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q189" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
       <c r="R189" t="inlineStr"/>
     </row>
     <row r="190">
@@ -14408,29 +13252,21 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P190" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
       <c r="R190" t="inlineStr"/>
     </row>
     <row r="191">
@@ -14496,29 +13332,21 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P191" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q191" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
       <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
@@ -14584,29 +13412,21 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P192" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q192" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
       <c r="R192" t="inlineStr"/>
     </row>
     <row r="193">
@@ -14672,29 +13492,21 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>İşləyir</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>----</t>
+          <t>Axtarılmır</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>İşləyir</t>
-        </is>
-      </c>
-      <c r="P193" t="inlineStr">
-        <is>
-          <t>Axtarılmır</t>
-        </is>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
           <t>Var</t>
         </is>
       </c>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
       <c r="R193" t="inlineStr"/>
     </row>
   </sheetData>

--- a/startup_az_linkwise.xlsx
+++ b/startup_az_linkwise.xlsx
@@ -1527,7 +1527,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>http://old.startup.az</t>
+          <t>http://vxsida.gov.az/az</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
